--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T15:36:17+00:00</t>
+    <t>2021-09-07T16:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T16:04:57+00:00</t>
+    <t>2021-09-07T16:50:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T16:50:43+00:00</t>
+    <t>2021-09-07T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T16:56:55+00:00</t>
+    <t>2021-09-07T17:01:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T17:01:37+00:00</t>
+    <t>2021-09-07T21:20:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T21:20:43+00:00</t>
+    <t>2021-09-07T21:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T21:58:07+00:00</t>
+    <t>2021-09-07T22:04:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:04:48+00:00</t>
+    <t>2021-09-09T21:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-09T21:37:01+00:00</t>
+    <t>2021-09-09T21:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-09T21:55:44+00:00</t>
+    <t>2021-09-12T20:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T20:42:44+00:00</t>
+    <t>2021-09-13T13:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T10:14:05+00:00</t>
+    <t>2021-09-17T11:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T11:58:41+00:00</t>
+    <t>2021-10-05T17:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T17:38:14+00:00</t>
+    <t>2021-10-06T16:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T16:27:54+00:00</t>
+    <t>2021-10-07T15:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:17:20+00:00</t>
+    <t>2021-10-07T15:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:21:28+00:00</t>
+    <t>2021-10-08T12:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:25:30+00:00</t>
+    <t>2021-10-08T12:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:52:53+00:00</t>
+    <t>2021-10-08T13:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T13:22:25+00:00</t>
+    <t>2021-10-09T11:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-09T11:33:56+00:00</t>
+    <t>2021-10-11T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:55:32+00:00</t>
+    <t>2021-10-11T22:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
